--- a/Documents/3MessageDesign/JSON通信协议.xlsx
+++ b/Documents/3MessageDesign/JSON通信协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14630" windowHeight="7180"/>
+    <workbookView windowWidth="14030" windowHeight="6910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>服务器</t>
   </si>
@@ -55,15 +55,9 @@
     <t>发送数据格式</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>标识码（用于服务器区别请求类型）</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>发送的信息</t>
   </si>
   <si>
@@ -113,6 +107,39 @@
   </si>
   <si>
     <t>密码</t>
+  </si>
+  <si>
+    <t>登录 101</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>注册 102</t>
+  </si>
+  <si>
+    <t>"code":</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"result":</t>
+  </si>
+  <si>
+    <t>"phone":</t>
+  </si>
+  <si>
+    <t>"password":</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录成功 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册 </t>
   </si>
 </sst>
 </file>
@@ -125,7 +152,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,18 +161,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,52 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,9 +193,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,14 +216,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,16 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,24 +321,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,19 +375,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,133 +453,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,41 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +563,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -578,6 +586,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,138 +632,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,15 +1088,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="30.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="14.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="10.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="12.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -1116,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1127,23 +1167,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1151,7 +1191,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1159,12 +1199,12 @@
         <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1172,45 +1212,121 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
         <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
         <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" ht="13" customHeight="1" spans="4:6">
+      <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F37" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" ht="17.5" spans="7:8">
+      <c r="G39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10">
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10">
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6">
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
